--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1272.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1272.xlsx
@@ -351,16 +351,16 @@
         <v>1.050375803612015</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1272.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1272.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.050375803612015</v>
+        <v>1.157930970191956</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.148375272750854</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>10.29334354400635</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.549879550933838</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>1.266692876815796</v>
       </c>
     </row>
   </sheetData>
